--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t xml:space="preserve">(SEO ou accessiblité ?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevention prevenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action guerir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performance et vitesse</t>
   </si>
 </sst>
 </file>
@@ -249,13 +258,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.29"/>
@@ -310,9 +319,17 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Référence</t>
   </si>
   <si>
+    <t xml:space="preserve">meta téléphone réécrit</t>
+  </si>
+  <si>
     <t xml:space="preserve">(SEO ou accessiblité ?)</t>
   </si>
   <si>
@@ -49,17 +52,111 @@
     <t xml:space="preserve">action guerir</t>
   </si>
   <si>
+    <t xml:space="preserve">ajout du titre du site</t>
+  </si>
+  <si>
     <t xml:space="preserve">performance et vitesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajout de &lt;script&gt; font awesome &lt;/script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsive mal construit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visibilité et accessibilité de certains éléments mauvaise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bien intégrer la balise méta &lt;meta name="viewport" content="width=device-width"&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">commencer l’intégration du site en mobile first puis gérer le responsive tablette, desktop et grands ecrans en fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changement du nom de la page deux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom/titre du site manquant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas de nom de site écrit en haut de la page, mauvais pour l’indexation etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intégrer le titre entre les balises &lt;title&gt;&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle navigation enlevé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO/accessibilité/performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balise script pour font awesome non intégrée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas d’accès aux icones voulues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intégrer le code entre balise &lt;script&gt; donné par font awesome, pour faire en sorte que les icones soient affichées et affichables sur le site par tous les navigateurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonnes balises utilisées (header, footer, div, nav, etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO/accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 2 sans réel nom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas de title explicite de la « page 2 », on ne sait pas ce que c’est au premier abord, encore moins Google qui ne saura pas de quoi parle cette page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">titres écrit et pas en photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt des images faits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meilleure lisibilité du texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier css mis dans le bon dossier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier scss fait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS supprimé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGER LES MOT CLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compression des images ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parametrez le cache navigateur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -91,6 +188,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -107,12 +218,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,13 +235,32 @@
         <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -160,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,11 +302,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,7 +393,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -260,19 +417,21 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="121.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="69.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="96.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="44.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -294,95 +453,310 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="G1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
+      <c r="A2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="G3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="G5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="G6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C9" s="11"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="4"/>
+      <c r="H9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E12" s="2"/>
+      <c r="G12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1354,6 +1728,10 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -115,13 +115,19 @@
     <t xml:space="preserve">Page 2 sans réel nom </t>
   </si>
   <si>
-    <t xml:space="preserve">pas de title explicite de la « page 2 », on ne sait pas ce que c’est au premier abord, encore moins Google qui ne saura pas de quoi parle cette page </t>
+    <t xml:space="preserve">pas de titre explicite de la « page 2 », on ne sait pas ce que c’est au premier abord, encore moins Google qui ne saura pas de quoi parle cette page </t>
   </si>
   <si>
     <t xml:space="preserve">titres écrit et pas en photo</t>
   </si>
   <si>
     <t xml:space="preserve">toggle navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloc inutile qui prend de la place pour rien et induit en erreur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bien réfléchir aux blocs que l’on ajoute et leur utilité avant d’intégrer</t>
   </si>
   <si>
     <t xml:space="preserve">alt des images faits</t>
@@ -156,7 +162,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -214,12 +220,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -289,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,11 +322,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,8 +334,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -421,7 +429,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.89"/>
@@ -547,7 +555,7 @@
       <c r="G5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -594,32 +602,38 @@
       <c r="B8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="11"/>
+      <c r="C9" s="12"/>
       <c r="E9" s="2"/>
       <c r="G9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="13"/>
       <c r="E10" s="2"/>
       <c r="G10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -628,7 +642,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -637,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -646,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -668,7 +682,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -676,7 +690,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -314,10 +314,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,6 +340,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -426,7 +426,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,7 +511,7 @@
       <c r="G3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -548,14 +548,14 @@
       <c r="C5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="G5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -563,16 +563,16 @@
       <c r="A6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="G6" s="0" t="n">
         <v>6</v>
       </c>
@@ -587,7 +587,7 @@
       <c r="B7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2"/>
@@ -602,7 +602,7 @@
       <c r="B8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="0" t="s">
@@ -617,7 +617,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
       <c r="E9" s="2"/>
       <c r="G9" s="0" t="n">
         <v>9</v>
@@ -627,7 +627,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="13"/>
+      <c r="C10" s="12"/>
       <c r="E10" s="2"/>
       <c r="G10" s="0" t="n">
         <v>10</v>
@@ -659,7 +659,7 @@
       <c r="G13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -668,20 +668,20 @@
       <c r="G14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E15" s="2"/>
       <c r="G15" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G16" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -689,7 +689,7 @@
       <c r="G17" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -697,79 +697,79 @@
       <c r="G18" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G19" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G20" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G21" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G22" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G23" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G25" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G27" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G28" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G29" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G30" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">JS supprimé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHANGER LES MOT CLES</t>
   </si>
   <si>
     <t xml:space="preserve">compression des images ?</t>
@@ -425,11 +422,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.89"/>
@@ -659,9 +656,7 @@
       <c r="G13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E14" s="2"/>
@@ -682,7 +677,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -690,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -40,115 +40,323 @@
     <t xml:space="preserve">Référence</t>
   </si>
   <si>
-    <t xml:space="preserve">meta téléphone réécrit</t>
-  </si>
-  <si>
     <t xml:space="preserve">(SEO ou accessiblité ?)</t>
   </si>
   <si>
-    <t xml:space="preserve">prevention prevenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action guerir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajout du titre du site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">performance et vitesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajout de &lt;script&gt; font awesome &lt;/script&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accessibilité</t>
   </si>
   <si>
     <t xml:space="preserve">Responsive mal construit</t>
   </si>
   <si>
-    <t xml:space="preserve">visibilité et accessibilité de certains éléments mauvaise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bien intégrer la balise méta &lt;meta name="viewport" content="width=device-width"&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">commencer l’intégration du site en mobile first puis gérer le responsive tablette, desktop et grands ecrans en fonction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changement du nom de la page deux</t>
+    <t xml:space="preserve">Visibilité et accessibilité mauvaise sur certains éléments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bien intégrer la balise &lt;meta name="viewport" content="width=device-width"&gt;. 
+Commencer l’intégration  du site en mobile first pour plus facilement gérer le 
+Responsive tablette, desktop et grands ecrans ensuite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refaire l’intégration du style en mobile first.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.start-up.fr/blog/287-pourquoi-passer-son-site-internet-en-responsive-web-design-rwd.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité et SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom du site manquant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de nom intégré dans le code HTML, donc pas de nom écrit dans l’onglet du navigateur = mauvais référencement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégrer le titre entre les balises &lt;title&gt; dans le meta du code HTML en y intégrant si 
+possible deux ou trois mots clés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réécrire le nom du site entre les balises &lt;title&gt; en y intégrant si possible des mots clés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTML/Element/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 2 sans nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de titre explicite de la « page 2 », ni dans la balise &lt;title&gt; ni dans le lien d’accès à la page 2 dans la page d’accueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégrer le titre entre les balises &lt;title&gt; ET dans le.s lien.s sur les autres pages 
+Pour qu’on sache, nous et le moteur de recherche, de quoi va parler cette page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réécrire le bon nom de la page entre les balises &lt;title&gt; de la page concernée et renommer les liens 
+La concernant sur les autres pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité et SEO 
+Et Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">« Toggle navigation » inutile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloc inutile présent qui prend de la place dans le code et alourdit la page pour rien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire une pré-maquette pour savori comment bien structurer le futur code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien suivre le web design et le suivre petit à petit pour ne rien louper ou ne rien ajouter de trop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.miss-seo-girl.com/creer-organiser-et-nettoyer-son-code-html/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauvaises balises HTML utilisées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauvaises balises utilisées pour le header par exemple. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se renseigner sur les balises existantes pour mieux structurer son code et éviter 
+d’utiliser que des « div »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser les bonnes balises suivant les blocs utilisés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.oncrawl.com/seo-technique/contenu-page-avec-balises-semantiques-html5/</t>
   </si>
   <si>
     <t xml:space="preserve">SEO</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom/titre du site manquant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pas de nom de site écrit en haut de la page, mauvais pour l’indexation etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intégrer le titre entre les balises &lt;title&gt;&lt;/title&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toggle navigation enlevé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO/accessibilité/performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balise script pour font awesome non intégrée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pas d’accès aux icones voulues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intégrer le code entre balise &lt;script&gt; donné par font awesome, pour faire en sorte que les icones soient affichées et affichables sur le site par tous les navigateurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonnes balises utilisées (header, footer, div, nav, etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO/accessibilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page 2 sans réel nom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pas de titre explicite de la « page 2 », on ne sait pas ce que c’est au premier abord, encore moins Google qui ne saura pas de quoi parle cette page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">titres écrit et pas en photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toggle navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bloc inutile qui prend de la place pour rien et induit en erreur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bien réfléchir aux blocs que l’on ajoute et leur utilité avant d’intégrer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alt des images faits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meilleure lisibilité du texte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier css mis dans le bon dossier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier scss fait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS supprimé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compression des images ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parametrez le cache navigateur</t>
+    <t xml:space="preserve">Balise meta description vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta description vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savoir si on ajoute ou non une meta description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si on a une meta descritpion, l’intégrer, sinon on ne met pas de meta description du tout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alsacreations.com/article/lire/628-balises-meta.html#utilite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise meta keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise meta keyword inutile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas utiliser de balise meta keyword, c’est une balise obsolète, elle n’est plus 
+prise en compte par les moteurs de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer la balise meta keyword.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W3C HTML et CSS non conforme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W3C HTML et CSS non conforme, ce qui signifie qu’il pourrait y avoir des elements non affichables ou non affichés sur certains navigateurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire vérifier son code html et css par validator.w3.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire vérifier le code HTML et CSS par validator.w3.org et faire les modifications nécéssaires demandées.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://remyperona.ca/validation-w3c-et-seo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titres h2 et h3 intégrés en images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les titres sont intégrés par des images : illisibe pour les moteurs de recherche, très mauvais pour le référencement </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Intégrer tous les textes dans le code HTML par </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">écrit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ainsi le moteur de recherche 
+pourra lire votre contenu et savoir de quoi vous allez parler</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacer tous les textes intégrés en tant qu’images par des textes écrits entre les bonnes balises HTML.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.yabawt.com/technologie-developpement/seo-technique-pourquoi-penser-referencement-des-le-developpement-de-votre-site-web/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image avec mauvais nom dans l’attribut alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauvaise description dans les attributs alt des images </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecrire dans les attributs alt des images ce que représente cette image de façon 
+courte, claire et précise pour que les malvoyants puissent savoir ce qu’est cette 
+Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réécrire le contenu des attributs alt par les bons nom/descriptions d’images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.comexplorer.com/attribut-alt-images-interet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images avec un titre non reconnaissable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauvais noms d’images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecrire les bons noms d’images permet de plus rapidement les identifier pour nous
+et pour les robots de mieux savoir de quoi elles « parlent » et de pouvoir s’appuyer
+Dessus en cas de requetes d’images. Sans espaces, sans caractères spéciaux et 
+Sans caractères accentués. Intégrer les </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réécrire tous les noms des images, et les réintégrer en écrivant le bon chemin de pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nosyweb.fr/optimiser-mon-referencement-seo-joomla/comment-nommer-les-images-pour-un-site-internet.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textes trop petits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textes trop petits (inférieur à 10px), peu lisible pour les malvoyants et personnes agées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre une taille de police de minimum 10px et préférer les unités comme le em ou 
+Le rem plutot que les unités fixes comme le px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer tous les textes inférieur à 10px pour les intégrer à minimum 10px, et utiliser une unité comme le em ou le 
+Rem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://all-for-design.com/web-design/lisibilite-des-sites-web-font-size-100-16px/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichier CSS « rangé » au mauvais endroit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le fichier css « principal » etait mal nommé (« style,css ») et mal placer dans le dossier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placer le fichier css dans un dossier CSS avec tous les autres fichiers css pour 
+ne pas faire faire trop d’aller retour au moteur de recherche durant le chargement
+de la page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replacer le fichier css dans un dossier CSS avec tous les autres fichiers css. Et bien sûr bien changer le chemin 
+d’acces dasn les balises meta des pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ornitorinc.com/blog/referencement/10-bonnes-pratiques-referencement-seo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de dossier ni fichier Sass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de dossier ni fichier scss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’utilisation de fichiers scss permet de compiler les fichiers css reliés aux pages. 
+Cela améliore la vitesse de chargement des pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer des fichiers scss dans un dossier scss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ipssidm.com/raisons-dabandonner-css-classique-sass/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript inutile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelques dossiers JavaScripts inutiles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégrer du code Javascript si nécessaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer le code JS inutile, ne laisser que le nécessaire (ici, seulement ce qui concerne le carrousel).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.yabawt.com/technologie-developpement/seo-technique-pourquoi-penser-referencement-des-le-developpement-de-votre-site-web/https://blog.yabawt.com/technologie-developpement/seo-technique-pourquoi-penser-referencement-des-le-developpement-de-votre-site-web/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images non compressées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images non compressées.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images non compressées sont du contenu inutilement lourd et ralentissent 
+le chargement des pages. Ainsi, il faut compresser toutes les images du site avec 
+compressor.io puis les intégrer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compresser toutes les images du site via compressor.io, puis les réintégrer avec les bons chemins d’accès 
+Dans le code HTML.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.3octets.fr/actualites/developpement/optimiser-taille-poids-images-seo-lexperience-utilisateur/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cache navigateur non parametré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cache navigateur non paramétré.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parametrer le cache navigateur (c’est le plus rapide à mettre en place et convient
+pour la majorité des sites web).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramétrer le cache navigateur : paramétrer les en-tetes HTTP suivant la technologie utilisée chez 
+Votre hébergeur.</t>
   </si>
 </sst>
 </file>
@@ -191,20 +399,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -218,8 +412,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,32 +441,13 @@
         <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -291,56 +481,56 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -398,7 +588,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -420,361 +610,1460 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AMJ1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D8" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="121.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="69.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="96.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="44.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="118.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="70.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="96.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="239.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.61"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="E2" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="3" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="G3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="G5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="G6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>28</v>
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="0" t="n">
+    <row r="13" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" s="12" customFormat="true" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+      <c r="AE22" s="0"/>
+      <c r="AF22" s="0"/>
+      <c r="AG22" s="0"/>
+      <c r="AH22" s="0"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="0"/>
+      <c r="AK22" s="0"/>
+      <c r="AL22" s="0"/>
+      <c r="AM22" s="0"/>
+      <c r="AN22" s="0"/>
+      <c r="AO22" s="0"/>
+      <c r="AP22" s="0"/>
+      <c r="AQ22" s="0"/>
+      <c r="AR22" s="0"/>
+      <c r="AS22" s="0"/>
+      <c r="AT22" s="0"/>
+      <c r="AU22" s="0"/>
+      <c r="AV22" s="0"/>
+      <c r="AW22" s="0"/>
+      <c r="AX22" s="0"/>
+      <c r="AY22" s="0"/>
+      <c r="AZ22" s="0"/>
+      <c r="BA22" s="0"/>
+      <c r="BB22" s="0"/>
+      <c r="BC22" s="0"/>
+      <c r="BD22" s="0"/>
+      <c r="BE22" s="0"/>
+      <c r="BF22" s="0"/>
+      <c r="BG22" s="0"/>
+      <c r="BH22" s="0"/>
+      <c r="BI22" s="0"/>
+      <c r="BJ22" s="0"/>
+      <c r="BK22" s="0"/>
+      <c r="BL22" s="0"/>
+      <c r="BM22" s="0"/>
+      <c r="BN22" s="0"/>
+      <c r="BO22" s="0"/>
+      <c r="BP22" s="0"/>
+      <c r="BQ22" s="0"/>
+      <c r="BR22" s="0"/>
+      <c r="BS22" s="0"/>
+      <c r="BT22" s="0"/>
+      <c r="BU22" s="0"/>
+      <c r="BV22" s="0"/>
+      <c r="BW22" s="0"/>
+      <c r="BX22" s="0"/>
+      <c r="BY22" s="0"/>
+      <c r="BZ22" s="0"/>
+      <c r="CA22" s="0"/>
+      <c r="CB22" s="0"/>
+      <c r="CC22" s="0"/>
+      <c r="CD22" s="0"/>
+      <c r="CE22" s="0"/>
+      <c r="CF22" s="0"/>
+      <c r="CG22" s="0"/>
+      <c r="CH22" s="0"/>
+      <c r="CI22" s="0"/>
+      <c r="CJ22" s="0"/>
+      <c r="CK22" s="0"/>
+      <c r="CL22" s="0"/>
+      <c r="CM22" s="0"/>
+      <c r="CN22" s="0"/>
+      <c r="CO22" s="0"/>
+      <c r="CP22" s="0"/>
+      <c r="CQ22" s="0"/>
+      <c r="CR22" s="0"/>
+      <c r="CS22" s="0"/>
+      <c r="CT22" s="0"/>
+      <c r="CU22" s="0"/>
+      <c r="CV22" s="0"/>
+      <c r="CW22" s="0"/>
+      <c r="CX22" s="0"/>
+      <c r="CY22" s="0"/>
+      <c r="CZ22" s="0"/>
+      <c r="DA22" s="0"/>
+      <c r="DB22" s="0"/>
+      <c r="DC22" s="0"/>
+      <c r="DD22" s="0"/>
+      <c r="DE22" s="0"/>
+      <c r="DF22" s="0"/>
+      <c r="DG22" s="0"/>
+      <c r="DH22" s="0"/>
+      <c r="DI22" s="0"/>
+      <c r="DJ22" s="0"/>
+      <c r="DK22" s="0"/>
+      <c r="DL22" s="0"/>
+      <c r="DM22" s="0"/>
+      <c r="DN22" s="0"/>
+      <c r="DO22" s="0"/>
+      <c r="DP22" s="0"/>
+      <c r="DQ22" s="0"/>
+      <c r="DR22" s="0"/>
+      <c r="DS22" s="0"/>
+      <c r="DT22" s="0"/>
+      <c r="DU22" s="0"/>
+      <c r="DV22" s="0"/>
+      <c r="DW22" s="0"/>
+      <c r="DX22" s="0"/>
+      <c r="DY22" s="0"/>
+      <c r="DZ22" s="0"/>
+      <c r="EA22" s="0"/>
+      <c r="EB22" s="0"/>
+      <c r="EC22" s="0"/>
+      <c r="ED22" s="0"/>
+      <c r="EE22" s="0"/>
+      <c r="EF22" s="0"/>
+      <c r="EG22" s="0"/>
+      <c r="EH22" s="0"/>
+      <c r="EI22" s="0"/>
+      <c r="EJ22" s="0"/>
+      <c r="EK22" s="0"/>
+      <c r="EL22" s="0"/>
+      <c r="EM22" s="0"/>
+      <c r="EN22" s="0"/>
+      <c r="EO22" s="0"/>
+      <c r="EP22" s="0"/>
+      <c r="EQ22" s="0"/>
+      <c r="ER22" s="0"/>
+      <c r="ES22" s="0"/>
+      <c r="ET22" s="0"/>
+      <c r="EU22" s="0"/>
+      <c r="EV22" s="0"/>
+      <c r="EW22" s="0"/>
+      <c r="EX22" s="0"/>
+      <c r="EY22" s="0"/>
+      <c r="EZ22" s="0"/>
+      <c r="FA22" s="0"/>
+      <c r="FB22" s="0"/>
+      <c r="FC22" s="0"/>
+      <c r="FD22" s="0"/>
+      <c r="FE22" s="0"/>
+      <c r="FF22" s="0"/>
+      <c r="FG22" s="0"/>
+      <c r="FH22" s="0"/>
+      <c r="FI22" s="0"/>
+      <c r="FJ22" s="0"/>
+      <c r="FK22" s="0"/>
+      <c r="FL22" s="0"/>
+      <c r="FM22" s="0"/>
+      <c r="FN22" s="0"/>
+      <c r="FO22" s="0"/>
+      <c r="FP22" s="0"/>
+      <c r="FQ22" s="0"/>
+      <c r="FR22" s="0"/>
+      <c r="FS22" s="0"/>
+      <c r="FT22" s="0"/>
+      <c r="FU22" s="0"/>
+      <c r="FV22" s="0"/>
+      <c r="FW22" s="0"/>
+      <c r="FX22" s="0"/>
+      <c r="FY22" s="0"/>
+      <c r="FZ22" s="0"/>
+      <c r="GA22" s="0"/>
+      <c r="GB22" s="0"/>
+      <c r="GC22" s="0"/>
+      <c r="GD22" s="0"/>
+      <c r="GE22" s="0"/>
+      <c r="GF22" s="0"/>
+      <c r="GG22" s="0"/>
+      <c r="GH22" s="0"/>
+      <c r="GI22" s="0"/>
+      <c r="GJ22" s="0"/>
+      <c r="GK22" s="0"/>
+      <c r="GL22" s="0"/>
+      <c r="GM22" s="0"/>
+      <c r="GN22" s="0"/>
+      <c r="GO22" s="0"/>
+      <c r="GP22" s="0"/>
+      <c r="GQ22" s="0"/>
+      <c r="GR22" s="0"/>
+      <c r="GS22" s="0"/>
+      <c r="GT22" s="0"/>
+      <c r="GU22" s="0"/>
+      <c r="GV22" s="0"/>
+      <c r="GW22" s="0"/>
+      <c r="GX22" s="0"/>
+      <c r="GY22" s="0"/>
+      <c r="GZ22" s="0"/>
+      <c r="HA22" s="0"/>
+      <c r="HB22" s="0"/>
+      <c r="HC22" s="0"/>
+      <c r="HD22" s="0"/>
+      <c r="HE22" s="0"/>
+      <c r="HF22" s="0"/>
+      <c r="HG22" s="0"/>
+      <c r="HH22" s="0"/>
+      <c r="HI22" s="0"/>
+      <c r="HJ22" s="0"/>
+      <c r="HK22" s="0"/>
+      <c r="HL22" s="0"/>
+      <c r="HM22" s="0"/>
+      <c r="HN22" s="0"/>
+      <c r="HO22" s="0"/>
+      <c r="HP22" s="0"/>
+      <c r="HQ22" s="0"/>
+      <c r="HR22" s="0"/>
+      <c r="HS22" s="0"/>
+      <c r="HT22" s="0"/>
+      <c r="HU22" s="0"/>
+      <c r="HV22" s="0"/>
+      <c r="HW22" s="0"/>
+      <c r="HX22" s="0"/>
+      <c r="HY22" s="0"/>
+      <c r="HZ22" s="0"/>
+      <c r="IA22" s="0"/>
+      <c r="IB22" s="0"/>
+      <c r="IC22" s="0"/>
+      <c r="ID22" s="0"/>
+      <c r="IE22" s="0"/>
+      <c r="IF22" s="0"/>
+      <c r="IG22" s="0"/>
+      <c r="IH22" s="0"/>
+      <c r="II22" s="0"/>
+      <c r="IJ22" s="0"/>
+      <c r="IK22" s="0"/>
+      <c r="IL22" s="0"/>
+      <c r="IM22" s="0"/>
+      <c r="IN22" s="0"/>
+      <c r="IO22" s="0"/>
+      <c r="IP22" s="0"/>
+      <c r="IQ22" s="0"/>
+      <c r="IR22" s="0"/>
+      <c r="IS22" s="0"/>
+      <c r="IT22" s="0"/>
+      <c r="IU22" s="0"/>
+      <c r="IV22" s="0"/>
+      <c r="IW22" s="0"/>
+      <c r="IX22" s="0"/>
+      <c r="IY22" s="0"/>
+      <c r="IZ22" s="0"/>
+      <c r="JA22" s="0"/>
+      <c r="JB22" s="0"/>
+      <c r="JC22" s="0"/>
+      <c r="JD22" s="0"/>
+      <c r="JE22" s="0"/>
+      <c r="JF22" s="0"/>
+      <c r="JG22" s="0"/>
+      <c r="JH22" s="0"/>
+      <c r="JI22" s="0"/>
+      <c r="JJ22" s="0"/>
+      <c r="JK22" s="0"/>
+      <c r="JL22" s="0"/>
+      <c r="JM22" s="0"/>
+      <c r="JN22" s="0"/>
+      <c r="JO22" s="0"/>
+      <c r="JP22" s="0"/>
+      <c r="JQ22" s="0"/>
+      <c r="JR22" s="0"/>
+      <c r="JS22" s="0"/>
+      <c r="JT22" s="0"/>
+      <c r="JU22" s="0"/>
+      <c r="JV22" s="0"/>
+      <c r="JW22" s="0"/>
+      <c r="JX22" s="0"/>
+      <c r="JY22" s="0"/>
+      <c r="JZ22" s="0"/>
+      <c r="KA22" s="0"/>
+      <c r="KB22" s="0"/>
+      <c r="KC22" s="0"/>
+      <c r="KD22" s="0"/>
+      <c r="KE22" s="0"/>
+      <c r="KF22" s="0"/>
+      <c r="KG22" s="0"/>
+      <c r="KH22" s="0"/>
+      <c r="KI22" s="0"/>
+      <c r="KJ22" s="0"/>
+      <c r="KK22" s="0"/>
+      <c r="KL22" s="0"/>
+      <c r="KM22" s="0"/>
+      <c r="KN22" s="0"/>
+      <c r="KO22" s="0"/>
+      <c r="KP22" s="0"/>
+      <c r="KQ22" s="0"/>
+      <c r="KR22" s="0"/>
+      <c r="KS22" s="0"/>
+      <c r="KT22" s="0"/>
+      <c r="KU22" s="0"/>
+      <c r="KV22" s="0"/>
+      <c r="KW22" s="0"/>
+      <c r="KX22" s="0"/>
+      <c r="KY22" s="0"/>
+      <c r="KZ22" s="0"/>
+      <c r="LA22" s="0"/>
+      <c r="LB22" s="0"/>
+      <c r="LC22" s="0"/>
+      <c r="LD22" s="0"/>
+      <c r="LE22" s="0"/>
+      <c r="LF22" s="0"/>
+      <c r="LG22" s="0"/>
+      <c r="LH22" s="0"/>
+      <c r="LI22" s="0"/>
+      <c r="LJ22" s="0"/>
+      <c r="LK22" s="0"/>
+      <c r="LL22" s="0"/>
+      <c r="LM22" s="0"/>
+      <c r="LN22" s="0"/>
+      <c r="LO22" s="0"/>
+      <c r="LP22" s="0"/>
+      <c r="LQ22" s="0"/>
+      <c r="LR22" s="0"/>
+      <c r="LS22" s="0"/>
+      <c r="LT22" s="0"/>
+      <c r="LU22" s="0"/>
+      <c r="LV22" s="0"/>
+      <c r="LW22" s="0"/>
+      <c r="LX22" s="0"/>
+      <c r="LY22" s="0"/>
+      <c r="LZ22" s="0"/>
+      <c r="MA22" s="0"/>
+      <c r="MB22" s="0"/>
+      <c r="MC22" s="0"/>
+      <c r="MD22" s="0"/>
+      <c r="ME22" s="0"/>
+      <c r="MF22" s="0"/>
+      <c r="MG22" s="0"/>
+      <c r="MH22" s="0"/>
+      <c r="MI22" s="0"/>
+      <c r="MJ22" s="0"/>
+      <c r="MK22" s="0"/>
+      <c r="ML22" s="0"/>
+      <c r="MM22" s="0"/>
+      <c r="MN22" s="0"/>
+      <c r="MO22" s="0"/>
+      <c r="MP22" s="0"/>
+      <c r="MQ22" s="0"/>
+      <c r="MR22" s="0"/>
+      <c r="MS22" s="0"/>
+      <c r="MT22" s="0"/>
+      <c r="MU22" s="0"/>
+      <c r="MV22" s="0"/>
+      <c r="MW22" s="0"/>
+      <c r="MX22" s="0"/>
+      <c r="MY22" s="0"/>
+      <c r="MZ22" s="0"/>
+      <c r="NA22" s="0"/>
+      <c r="NB22" s="0"/>
+      <c r="NC22" s="0"/>
+      <c r="ND22" s="0"/>
+      <c r="NE22" s="0"/>
+      <c r="NF22" s="0"/>
+      <c r="NG22" s="0"/>
+      <c r="NH22" s="0"/>
+      <c r="NI22" s="0"/>
+      <c r="NJ22" s="0"/>
+      <c r="NK22" s="0"/>
+      <c r="NL22" s="0"/>
+      <c r="NM22" s="0"/>
+      <c r="NN22" s="0"/>
+      <c r="NO22" s="0"/>
+      <c r="NP22" s="0"/>
+      <c r="NQ22" s="0"/>
+      <c r="NR22" s="0"/>
+      <c r="NS22" s="0"/>
+      <c r="NT22" s="0"/>
+      <c r="NU22" s="0"/>
+      <c r="NV22" s="0"/>
+      <c r="NW22" s="0"/>
+      <c r="NX22" s="0"/>
+      <c r="NY22" s="0"/>
+      <c r="NZ22" s="0"/>
+      <c r="OA22" s="0"/>
+      <c r="OB22" s="0"/>
+      <c r="OC22" s="0"/>
+      <c r="OD22" s="0"/>
+      <c r="OE22" s="0"/>
+      <c r="OF22" s="0"/>
+      <c r="OG22" s="0"/>
+      <c r="OH22" s="0"/>
+      <c r="OI22" s="0"/>
+      <c r="OJ22" s="0"/>
+      <c r="OK22" s="0"/>
+      <c r="OL22" s="0"/>
+      <c r="OM22" s="0"/>
+      <c r="ON22" s="0"/>
+      <c r="OO22" s="0"/>
+      <c r="OP22" s="0"/>
+      <c r="OQ22" s="0"/>
+      <c r="OR22" s="0"/>
+      <c r="OS22" s="0"/>
+      <c r="OT22" s="0"/>
+      <c r="OU22" s="0"/>
+      <c r="OV22" s="0"/>
+      <c r="OW22" s="0"/>
+      <c r="OX22" s="0"/>
+      <c r="OY22" s="0"/>
+      <c r="OZ22" s="0"/>
+      <c r="PA22" s="0"/>
+      <c r="PB22" s="0"/>
+      <c r="PC22" s="0"/>
+      <c r="PD22" s="0"/>
+      <c r="PE22" s="0"/>
+      <c r="PF22" s="0"/>
+      <c r="PG22" s="0"/>
+      <c r="PH22" s="0"/>
+      <c r="PI22" s="0"/>
+      <c r="PJ22" s="0"/>
+      <c r="PK22" s="0"/>
+      <c r="PL22" s="0"/>
+      <c r="PM22" s="0"/>
+      <c r="PN22" s="0"/>
+      <c r="PO22" s="0"/>
+      <c r="PP22" s="0"/>
+      <c r="PQ22" s="0"/>
+      <c r="PR22" s="0"/>
+      <c r="PS22" s="0"/>
+      <c r="PT22" s="0"/>
+      <c r="PU22" s="0"/>
+      <c r="PV22" s="0"/>
+      <c r="PW22" s="0"/>
+      <c r="PX22" s="0"/>
+      <c r="PY22" s="0"/>
+      <c r="PZ22" s="0"/>
+      <c r="QA22" s="0"/>
+      <c r="QB22" s="0"/>
+      <c r="QC22" s="0"/>
+      <c r="QD22" s="0"/>
+      <c r="QE22" s="0"/>
+      <c r="QF22" s="0"/>
+      <c r="QG22" s="0"/>
+      <c r="QH22" s="0"/>
+      <c r="QI22" s="0"/>
+      <c r="QJ22" s="0"/>
+      <c r="QK22" s="0"/>
+      <c r="QL22" s="0"/>
+      <c r="QM22" s="0"/>
+      <c r="QN22" s="0"/>
+      <c r="QO22" s="0"/>
+      <c r="QP22" s="0"/>
+      <c r="QQ22" s="0"/>
+      <c r="QR22" s="0"/>
+      <c r="QS22" s="0"/>
+      <c r="QT22" s="0"/>
+      <c r="QU22" s="0"/>
+      <c r="QV22" s="0"/>
+      <c r="QW22" s="0"/>
+      <c r="QX22" s="0"/>
+      <c r="QY22" s="0"/>
+      <c r="QZ22" s="0"/>
+      <c r="RA22" s="0"/>
+      <c r="RB22" s="0"/>
+      <c r="RC22" s="0"/>
+      <c r="RD22" s="0"/>
+      <c r="RE22" s="0"/>
+      <c r="RF22" s="0"/>
+      <c r="RG22" s="0"/>
+      <c r="RH22" s="0"/>
+      <c r="RI22" s="0"/>
+      <c r="RJ22" s="0"/>
+      <c r="RK22" s="0"/>
+      <c r="RL22" s="0"/>
+      <c r="RM22" s="0"/>
+      <c r="RN22" s="0"/>
+      <c r="RO22" s="0"/>
+      <c r="RP22" s="0"/>
+      <c r="RQ22" s="0"/>
+      <c r="RR22" s="0"/>
+      <c r="RS22" s="0"/>
+      <c r="RT22" s="0"/>
+      <c r="RU22" s="0"/>
+      <c r="RV22" s="0"/>
+      <c r="RW22" s="0"/>
+      <c r="RX22" s="0"/>
+      <c r="RY22" s="0"/>
+      <c r="RZ22" s="0"/>
+      <c r="SA22" s="0"/>
+      <c r="SB22" s="0"/>
+      <c r="SC22" s="0"/>
+      <c r="SD22" s="0"/>
+      <c r="SE22" s="0"/>
+      <c r="SF22" s="0"/>
+      <c r="SG22" s="0"/>
+      <c r="SH22" s="0"/>
+      <c r="SI22" s="0"/>
+      <c r="SJ22" s="0"/>
+      <c r="SK22" s="0"/>
+      <c r="SL22" s="0"/>
+      <c r="SM22" s="0"/>
+      <c r="SN22" s="0"/>
+      <c r="SO22" s="0"/>
+      <c r="SP22" s="0"/>
+      <c r="SQ22" s="0"/>
+      <c r="SR22" s="0"/>
+      <c r="SS22" s="0"/>
+      <c r="ST22" s="0"/>
+      <c r="SU22" s="0"/>
+      <c r="SV22" s="0"/>
+      <c r="SW22" s="0"/>
+      <c r="SX22" s="0"/>
+      <c r="SY22" s="0"/>
+      <c r="SZ22" s="0"/>
+      <c r="TA22" s="0"/>
+      <c r="TB22" s="0"/>
+      <c r="TC22" s="0"/>
+      <c r="TD22" s="0"/>
+      <c r="TE22" s="0"/>
+      <c r="TF22" s="0"/>
+      <c r="TG22" s="0"/>
+      <c r="TH22" s="0"/>
+      <c r="TI22" s="0"/>
+      <c r="TJ22" s="0"/>
+      <c r="TK22" s="0"/>
+      <c r="TL22" s="0"/>
+      <c r="TM22" s="0"/>
+      <c r="TN22" s="0"/>
+      <c r="TO22" s="0"/>
+      <c r="TP22" s="0"/>
+      <c r="TQ22" s="0"/>
+      <c r="TR22" s="0"/>
+      <c r="TS22" s="0"/>
+      <c r="TT22" s="0"/>
+      <c r="TU22" s="0"/>
+      <c r="TV22" s="0"/>
+      <c r="TW22" s="0"/>
+      <c r="TX22" s="0"/>
+      <c r="TY22" s="0"/>
+      <c r="TZ22" s="0"/>
+      <c r="UA22" s="0"/>
+      <c r="UB22" s="0"/>
+      <c r="UC22" s="0"/>
+      <c r="UD22" s="0"/>
+      <c r="UE22" s="0"/>
+      <c r="UF22" s="0"/>
+      <c r="UG22" s="0"/>
+      <c r="UH22" s="0"/>
+      <c r="UI22" s="0"/>
+      <c r="UJ22" s="0"/>
+      <c r="UK22" s="0"/>
+      <c r="UL22" s="0"/>
+      <c r="UM22" s="0"/>
+      <c r="UN22" s="0"/>
+      <c r="UO22" s="0"/>
+      <c r="UP22" s="0"/>
+      <c r="UQ22" s="0"/>
+      <c r="UR22" s="0"/>
+      <c r="US22" s="0"/>
+      <c r="UT22" s="0"/>
+      <c r="UU22" s="0"/>
+      <c r="UV22" s="0"/>
+      <c r="UW22" s="0"/>
+      <c r="UX22" s="0"/>
+      <c r="UY22" s="0"/>
+      <c r="UZ22" s="0"/>
+      <c r="VA22" s="0"/>
+      <c r="VB22" s="0"/>
+      <c r="VC22" s="0"/>
+      <c r="VD22" s="0"/>
+      <c r="VE22" s="0"/>
+      <c r="VF22" s="0"/>
+      <c r="VG22" s="0"/>
+      <c r="VH22" s="0"/>
+      <c r="VI22" s="0"/>
+      <c r="VJ22" s="0"/>
+      <c r="VK22" s="0"/>
+      <c r="VL22" s="0"/>
+      <c r="VM22" s="0"/>
+      <c r="VN22" s="0"/>
+      <c r="VO22" s="0"/>
+      <c r="VP22" s="0"/>
+      <c r="VQ22" s="0"/>
+      <c r="VR22" s="0"/>
+      <c r="VS22" s="0"/>
+      <c r="VT22" s="0"/>
+      <c r="VU22" s="0"/>
+      <c r="VV22" s="0"/>
+      <c r="VW22" s="0"/>
+      <c r="VX22" s="0"/>
+      <c r="VY22" s="0"/>
+      <c r="VZ22" s="0"/>
+      <c r="WA22" s="0"/>
+      <c r="WB22" s="0"/>
+      <c r="WC22" s="0"/>
+      <c r="WD22" s="0"/>
+      <c r="WE22" s="0"/>
+      <c r="WF22" s="0"/>
+      <c r="WG22" s="0"/>
+      <c r="WH22" s="0"/>
+      <c r="WI22" s="0"/>
+      <c r="WJ22" s="0"/>
+      <c r="WK22" s="0"/>
+      <c r="WL22" s="0"/>
+      <c r="WM22" s="0"/>
+      <c r="WN22" s="0"/>
+      <c r="WO22" s="0"/>
+      <c r="WP22" s="0"/>
+      <c r="WQ22" s="0"/>
+      <c r="WR22" s="0"/>
+      <c r="WS22" s="0"/>
+      <c r="WT22" s="0"/>
+      <c r="WU22" s="0"/>
+      <c r="WV22" s="0"/>
+      <c r="WW22" s="0"/>
+      <c r="WX22" s="0"/>
+      <c r="WY22" s="0"/>
+      <c r="WZ22" s="0"/>
+      <c r="XA22" s="0"/>
+      <c r="XB22" s="0"/>
+      <c r="XC22" s="0"/>
+      <c r="XD22" s="0"/>
+      <c r="XE22" s="0"/>
+      <c r="XF22" s="0"/>
+      <c r="XG22" s="0"/>
+      <c r="XH22" s="0"/>
+      <c r="XI22" s="0"/>
+      <c r="XJ22" s="0"/>
+      <c r="XK22" s="0"/>
+      <c r="XL22" s="0"/>
+      <c r="XM22" s="0"/>
+      <c r="XN22" s="0"/>
+      <c r="XO22" s="0"/>
+      <c r="XP22" s="0"/>
+      <c r="XQ22" s="0"/>
+      <c r="XR22" s="0"/>
+      <c r="XS22" s="0"/>
+      <c r="XT22" s="0"/>
+      <c r="XU22" s="0"/>
+      <c r="XV22" s="0"/>
+      <c r="XW22" s="0"/>
+      <c r="XX22" s="0"/>
+      <c r="XY22" s="0"/>
+      <c r="XZ22" s="0"/>
+      <c r="YA22" s="0"/>
+      <c r="YB22" s="0"/>
+      <c r="YC22" s="0"/>
+      <c r="YD22" s="0"/>
+      <c r="YE22" s="0"/>
+      <c r="YF22" s="0"/>
+      <c r="YG22" s="0"/>
+      <c r="YH22" s="0"/>
+      <c r="YI22" s="0"/>
+      <c r="YJ22" s="0"/>
+      <c r="YK22" s="0"/>
+      <c r="YL22" s="0"/>
+      <c r="YM22" s="0"/>
+      <c r="YN22" s="0"/>
+      <c r="YO22" s="0"/>
+      <c r="YP22" s="0"/>
+      <c r="YQ22" s="0"/>
+      <c r="YR22" s="0"/>
+      <c r="YS22" s="0"/>
+      <c r="YT22" s="0"/>
+      <c r="YU22" s="0"/>
+      <c r="YV22" s="0"/>
+      <c r="YW22" s="0"/>
+      <c r="YX22" s="0"/>
+      <c r="YY22" s="0"/>
+      <c r="YZ22" s="0"/>
+      <c r="ZA22" s="0"/>
+      <c r="ZB22" s="0"/>
+      <c r="ZC22" s="0"/>
+      <c r="ZD22" s="0"/>
+      <c r="ZE22" s="0"/>
+      <c r="ZF22" s="0"/>
+      <c r="ZG22" s="0"/>
+      <c r="ZH22" s="0"/>
+      <c r="ZI22" s="0"/>
+      <c r="ZJ22" s="0"/>
+      <c r="ZK22" s="0"/>
+      <c r="ZL22" s="0"/>
+      <c r="ZM22" s="0"/>
+      <c r="ZN22" s="0"/>
+      <c r="ZO22" s="0"/>
+      <c r="ZP22" s="0"/>
+      <c r="ZQ22" s="0"/>
+      <c r="ZR22" s="0"/>
+      <c r="ZS22" s="0"/>
+      <c r="ZT22" s="0"/>
+      <c r="ZU22" s="0"/>
+      <c r="ZV22" s="0"/>
+      <c r="ZW22" s="0"/>
+      <c r="ZX22" s="0"/>
+      <c r="ZY22" s="0"/>
+      <c r="ZZ22" s="0"/>
+      <c r="AAA22" s="0"/>
+      <c r="AAB22" s="0"/>
+      <c r="AAC22" s="0"/>
+      <c r="AAD22" s="0"/>
+      <c r="AAE22" s="0"/>
+      <c r="AAF22" s="0"/>
+      <c r="AAG22" s="0"/>
+      <c r="AAH22" s="0"/>
+      <c r="AAI22" s="0"/>
+      <c r="AAJ22" s="0"/>
+      <c r="AAK22" s="0"/>
+      <c r="AAL22" s="0"/>
+      <c r="AAM22" s="0"/>
+      <c r="AAN22" s="0"/>
+      <c r="AAO22" s="0"/>
+      <c r="AAP22" s="0"/>
+      <c r="AAQ22" s="0"/>
+      <c r="AAR22" s="0"/>
+      <c r="AAS22" s="0"/>
+      <c r="AAT22" s="0"/>
+      <c r="AAU22" s="0"/>
+      <c r="AAV22" s="0"/>
+      <c r="AAW22" s="0"/>
+      <c r="AAX22" s="0"/>
+      <c r="AAY22" s="0"/>
+      <c r="AAZ22" s="0"/>
+      <c r="ABA22" s="0"/>
+      <c r="ABB22" s="0"/>
+      <c r="ABC22" s="0"/>
+      <c r="ABD22" s="0"/>
+      <c r="ABE22" s="0"/>
+      <c r="ABF22" s="0"/>
+      <c r="ABG22" s="0"/>
+      <c r="ABH22" s="0"/>
+      <c r="ABI22" s="0"/>
+      <c r="ABJ22" s="0"/>
+      <c r="ABK22" s="0"/>
+      <c r="ABL22" s="0"/>
+      <c r="ABM22" s="0"/>
+      <c r="ABN22" s="0"/>
+      <c r="ABO22" s="0"/>
+      <c r="ABP22" s="0"/>
+      <c r="ABQ22" s="0"/>
+      <c r="ABR22" s="0"/>
+      <c r="ABS22" s="0"/>
+      <c r="ABT22" s="0"/>
+      <c r="ABU22" s="0"/>
+      <c r="ABV22" s="0"/>
+      <c r="ABW22" s="0"/>
+      <c r="ABX22" s="0"/>
+      <c r="ABY22" s="0"/>
+      <c r="ABZ22" s="0"/>
+      <c r="ACA22" s="0"/>
+      <c r="ACB22" s="0"/>
+      <c r="ACC22" s="0"/>
+      <c r="ACD22" s="0"/>
+      <c r="ACE22" s="0"/>
+      <c r="ACF22" s="0"/>
+      <c r="ACG22" s="0"/>
+      <c r="ACH22" s="0"/>
+      <c r="ACI22" s="0"/>
+      <c r="ACJ22" s="0"/>
+      <c r="ACK22" s="0"/>
+      <c r="ACL22" s="0"/>
+      <c r="ACM22" s="0"/>
+      <c r="ACN22" s="0"/>
+      <c r="ACO22" s="0"/>
+      <c r="ACP22" s="0"/>
+      <c r="ACQ22" s="0"/>
+      <c r="ACR22" s="0"/>
+      <c r="ACS22" s="0"/>
+      <c r="ACT22" s="0"/>
+      <c r="ACU22" s="0"/>
+      <c r="ACV22" s="0"/>
+      <c r="ACW22" s="0"/>
+      <c r="ACX22" s="0"/>
+      <c r="ACY22" s="0"/>
+      <c r="ACZ22" s="0"/>
+      <c r="ADA22" s="0"/>
+      <c r="ADB22" s="0"/>
+      <c r="ADC22" s="0"/>
+      <c r="ADD22" s="0"/>
+      <c r="ADE22" s="0"/>
+      <c r="ADF22" s="0"/>
+      <c r="ADG22" s="0"/>
+      <c r="ADH22" s="0"/>
+      <c r="ADI22" s="0"/>
+      <c r="ADJ22" s="0"/>
+      <c r="ADK22" s="0"/>
+      <c r="ADL22" s="0"/>
+      <c r="ADM22" s="0"/>
+      <c r="ADN22" s="0"/>
+      <c r="ADO22" s="0"/>
+      <c r="ADP22" s="0"/>
+      <c r="ADQ22" s="0"/>
+      <c r="ADR22" s="0"/>
+      <c r="ADS22" s="0"/>
+      <c r="ADT22" s="0"/>
+      <c r="ADU22" s="0"/>
+      <c r="ADV22" s="0"/>
+      <c r="ADW22" s="0"/>
+      <c r="ADX22" s="0"/>
+      <c r="ADY22" s="0"/>
+      <c r="ADZ22" s="0"/>
+      <c r="AEA22" s="0"/>
+      <c r="AEB22" s="0"/>
+      <c r="AEC22" s="0"/>
+      <c r="AED22" s="0"/>
+      <c r="AEE22" s="0"/>
+      <c r="AEF22" s="0"/>
+      <c r="AEG22" s="0"/>
+      <c r="AEH22" s="0"/>
+      <c r="AEI22" s="0"/>
+      <c r="AEJ22" s="0"/>
+      <c r="AEK22" s="0"/>
+      <c r="AEL22" s="0"/>
+      <c r="AEM22" s="0"/>
+      <c r="AEN22" s="0"/>
+      <c r="AEO22" s="0"/>
+      <c r="AEP22" s="0"/>
+      <c r="AEQ22" s="0"/>
+      <c r="AER22" s="0"/>
+      <c r="AES22" s="0"/>
+      <c r="AET22" s="0"/>
+      <c r="AEU22" s="0"/>
+      <c r="AEV22" s="0"/>
+      <c r="AEW22" s="0"/>
+      <c r="AEX22" s="0"/>
+      <c r="AEY22" s="0"/>
+      <c r="AEZ22" s="0"/>
+      <c r="AFA22" s="0"/>
+      <c r="AFB22" s="0"/>
+      <c r="AFC22" s="0"/>
+      <c r="AFD22" s="0"/>
+      <c r="AFE22" s="0"/>
+      <c r="AFF22" s="0"/>
+      <c r="AFG22" s="0"/>
+      <c r="AFH22" s="0"/>
+      <c r="AFI22" s="0"/>
+      <c r="AFJ22" s="0"/>
+      <c r="AFK22" s="0"/>
+      <c r="AFL22" s="0"/>
+      <c r="AFM22" s="0"/>
+      <c r="AFN22" s="0"/>
+      <c r="AFO22" s="0"/>
+      <c r="AFP22" s="0"/>
+      <c r="AFQ22" s="0"/>
+      <c r="AFR22" s="0"/>
+      <c r="AFS22" s="0"/>
+      <c r="AFT22" s="0"/>
+      <c r="AFU22" s="0"/>
+      <c r="AFV22" s="0"/>
+      <c r="AFW22" s="0"/>
+      <c r="AFX22" s="0"/>
+      <c r="AFY22" s="0"/>
+      <c r="AFZ22" s="0"/>
+      <c r="AGA22" s="0"/>
+      <c r="AGB22" s="0"/>
+      <c r="AGC22" s="0"/>
+      <c r="AGD22" s="0"/>
+      <c r="AGE22" s="0"/>
+      <c r="AGF22" s="0"/>
+      <c r="AGG22" s="0"/>
+      <c r="AGH22" s="0"/>
+      <c r="AGI22" s="0"/>
+      <c r="AGJ22" s="0"/>
+      <c r="AGK22" s="0"/>
+      <c r="AGL22" s="0"/>
+      <c r="AGM22" s="0"/>
+      <c r="AGN22" s="0"/>
+      <c r="AGO22" s="0"/>
+      <c r="AGP22" s="0"/>
+      <c r="AGQ22" s="0"/>
+      <c r="AGR22" s="0"/>
+      <c r="AGS22" s="0"/>
+      <c r="AGT22" s="0"/>
+      <c r="AGU22" s="0"/>
+      <c r="AGV22" s="0"/>
+      <c r="AGW22" s="0"/>
+      <c r="AGX22" s="0"/>
+      <c r="AGY22" s="0"/>
+      <c r="AGZ22" s="0"/>
+      <c r="AHA22" s="0"/>
+      <c r="AHB22" s="0"/>
+      <c r="AHC22" s="0"/>
+      <c r="AHD22" s="0"/>
+      <c r="AHE22" s="0"/>
+      <c r="AHF22" s="0"/>
+      <c r="AHG22" s="0"/>
+      <c r="AHH22" s="0"/>
+      <c r="AHI22" s="0"/>
+      <c r="AHJ22" s="0"/>
+      <c r="AHK22" s="0"/>
+      <c r="AHL22" s="0"/>
+      <c r="AHM22" s="0"/>
+      <c r="AHN22" s="0"/>
+      <c r="AHO22" s="0"/>
+      <c r="AHP22" s="0"/>
+      <c r="AHQ22" s="0"/>
+      <c r="AHR22" s="0"/>
+      <c r="AHS22" s="0"/>
+      <c r="AHT22" s="0"/>
+      <c r="AHU22" s="0"/>
+      <c r="AHV22" s="0"/>
+      <c r="AHW22" s="0"/>
+      <c r="AHX22" s="0"/>
+      <c r="AHY22" s="0"/>
+      <c r="AHZ22" s="0"/>
+      <c r="AIA22" s="0"/>
+      <c r="AIB22" s="0"/>
+      <c r="AIC22" s="0"/>
+      <c r="AID22" s="0"/>
+      <c r="AIE22" s="0"/>
+      <c r="AIF22" s="0"/>
+      <c r="AIG22" s="0"/>
+      <c r="AIH22" s="0"/>
+      <c r="AII22" s="0"/>
+      <c r="AIJ22" s="0"/>
+      <c r="AIK22" s="0"/>
+      <c r="AIL22" s="0"/>
+      <c r="AIM22" s="0"/>
+      <c r="AIN22" s="0"/>
+      <c r="AIO22" s="0"/>
+      <c r="AIP22" s="0"/>
+      <c r="AIQ22" s="0"/>
+      <c r="AIR22" s="0"/>
+      <c r="AIS22" s="0"/>
+      <c r="AIT22" s="0"/>
+      <c r="AIU22" s="0"/>
+      <c r="AIV22" s="0"/>
+      <c r="AIW22" s="0"/>
+      <c r="AIX22" s="0"/>
+      <c r="AIY22" s="0"/>
+      <c r="AIZ22" s="0"/>
+      <c r="AJA22" s="0"/>
+      <c r="AJB22" s="0"/>
+      <c r="AJC22" s="0"/>
+      <c r="AJD22" s="0"/>
+      <c r="AJE22" s="0"/>
+      <c r="AJF22" s="0"/>
+      <c r="AJG22" s="0"/>
+      <c r="AJH22" s="0"/>
+      <c r="AJI22" s="0"/>
+      <c r="AJJ22" s="0"/>
+      <c r="AJK22" s="0"/>
+      <c r="AJL22" s="0"/>
+      <c r="AJM22" s="0"/>
+      <c r="AJN22" s="0"/>
+      <c r="AJO22" s="0"/>
+      <c r="AJP22" s="0"/>
+      <c r="AJQ22" s="0"/>
+      <c r="AJR22" s="0"/>
+      <c r="AJS22" s="0"/>
+      <c r="AJT22" s="0"/>
+      <c r="AJU22" s="0"/>
+      <c r="AJV22" s="0"/>
+      <c r="AJW22" s="0"/>
+      <c r="AJX22" s="0"/>
+      <c r="AJY22" s="0"/>
+      <c r="AJZ22" s="0"/>
+      <c r="AKA22" s="0"/>
+      <c r="AKB22" s="0"/>
+      <c r="AKC22" s="0"/>
+      <c r="AKD22" s="0"/>
+      <c r="AKE22" s="0"/>
+      <c r="AKF22" s="0"/>
+      <c r="AKG22" s="0"/>
+      <c r="AKH22" s="0"/>
+      <c r="AKI22" s="0"/>
+      <c r="AKJ22" s="0"/>
+      <c r="AKK22" s="0"/>
+      <c r="AKL22" s="0"/>
+      <c r="AKM22" s="0"/>
+      <c r="AKN22" s="0"/>
+      <c r="AKO22" s="0"/>
+      <c r="AKP22" s="0"/>
+      <c r="AKQ22" s="0"/>
+      <c r="AKR22" s="0"/>
+      <c r="AKS22" s="0"/>
+      <c r="AKT22" s="0"/>
+      <c r="AKU22" s="0"/>
+      <c r="AKV22" s="0"/>
+      <c r="AKW22" s="0"/>
+      <c r="AKX22" s="0"/>
+      <c r="AKY22" s="0"/>
+      <c r="AKZ22" s="0"/>
+      <c r="ALA22" s="0"/>
+      <c r="ALB22" s="0"/>
+      <c r="ALC22" s="0"/>
+      <c r="ALD22" s="0"/>
+      <c r="ALE22" s="0"/>
+      <c r="ALF22" s="0"/>
+      <c r="ALG22" s="0"/>
+      <c r="ALH22" s="0"/>
+      <c r="ALI22" s="0"/>
+      <c r="ALJ22" s="0"/>
+      <c r="ALK22" s="0"/>
+      <c r="ALL22" s="0"/>
+      <c r="ALM22" s="0"/>
+      <c r="ALN22" s="0"/>
+      <c r="ALO22" s="0"/>
+      <c r="ALP22" s="0"/>
+      <c r="ALQ22" s="0"/>
+      <c r="ALR22" s="0"/>
+      <c r="ALS22" s="0"/>
+      <c r="ALT22" s="0"/>
+      <c r="ALU22" s="0"/>
+      <c r="ALV22" s="0"/>
+      <c r="ALW22" s="0"/>
+      <c r="ALX22" s="0"/>
+      <c r="ALY22" s="0"/>
+      <c r="ALZ22" s="0"/>
+      <c r="AMA22" s="0"/>
+      <c r="AMB22" s="0"/>
+      <c r="AMC22" s="0"/>
+      <c r="AMD22" s="0"/>
+      <c r="AME22" s="0"/>
+      <c r="AMF22" s="0"/>
+      <c r="AMG22" s="0"/>
+      <c r="AMH22" s="0"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>32</v>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>36</v>
+    <row r="27" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="11"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>37</v>
+    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="12"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
+    <row r="31" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="2"/>
-      <c r="G11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>39</v>
+    <row r="33" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="2"/>
-      <c r="G12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>40</v>
-      </c>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="2"/>
-      <c r="G13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H13" s="13"/>
+    <row r="35" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="2"/>
-      <c r="G14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H14" s="13"/>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E36" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="2"/>
-      <c r="G15" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H15" s="13"/>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E37" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>41</v>
-      </c>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E38" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>42</v>
-      </c>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E39" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G21" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G22" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G23" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G24" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G25" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G26" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G27" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G28" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G29" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G30" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1737,10 +3026,15 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F13" r:id="rId1" location="utilite" display="https://www.alsacreations.com/article/lire/628-balises-meta.html#utilite"/>
+    <hyperlink ref="F15" r:id="rId2" location="utilite" display="https://www.alsacreations.com/article/lire/628-balises-meta.html#utilite"/>
+    <hyperlink ref="F19" r:id="rId3" display="https://blog.yabawt.com/technologie-developpement/seo-technique-pourquoi-penser-referencement-des-le-developpement-de-votre-site-web/"/>
+    <hyperlink ref="F23" r:id="rId4" display="https://www.nosyweb.fr/optimiser-mon-referencement-seo-joomla/comment-nommer-les-images-pour-un-site-internet.html"/>
+    <hyperlink ref="F25" r:id="rId5" display="http://all-for-design.com/web-design/lisibilite-des-sites-web-font-size-100-16px/"/>
+    <hyperlink ref="F31" r:id="rId6" display="https://blog.yabawt.com/technologie-developpement/seo-technique-pourquoi-penser-referencement-des-le-developpement-de-votre-site-web/https://blog.yabawt.com/technologie-developpement/seo-technique-pourquoi-penser-referencement-des-le-developpement-de-votre-site-web/"/>
+    <hyperlink ref="F33" r:id="rId7" display="https://www.3octets.fr/actualites/developpement/optimiser-taille-poids-images-seo-lexperience-utilisateur/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -53,8 +53,8 @@
   </si>
   <si>
     <t xml:space="preserve">bien intégrer la balise &lt;meta name="viewport" content="width=device-width"&gt;. 
-Commencer l’intégration  du site en mobile first pour plus facilement gérer le 
-Responsive tablette, desktop et grands ecrans ensuite</t>
+Commencer l’intégration du site en mobile first pour plus facilement gérer le 
+Responsive tablette, desktop et grands ecrans ensuite.</t>
   </si>
   <si>
     <t xml:space="preserve">Refaire l’intégration du style en mobile first.</t>
@@ -96,8 +96,7 @@
 La concernant sur les autres pages.</t>
   </si>
   <si>
-    <t xml:space="preserve">Accessibilité et SEO 
-Et Performance</t>
+    <t xml:space="preserve">Accessibilité et SEO et Performance</t>
   </si>
   <si>
     <t xml:space="preserve">« Toggle navigation » inutile</t>
@@ -106,7 +105,7 @@
     <t xml:space="preserve">Bloc inutile présent qui prend de la place dans le code et alourdit la page pour rien.</t>
   </si>
   <si>
-    <t xml:space="preserve">Faire une pré-maquette pour savori comment bien structurer le futur code.</t>
+    <t xml:space="preserve">Faire une pré-maquette pour savoir comment bien structurer le futur code.</t>
   </si>
   <si>
     <t xml:space="preserve">Bien suivre le web design et le suivre petit à petit pour ne rien louper ou ne rien ajouter de trop.</t>
@@ -248,11 +247,11 @@
   <si>
     <t xml:space="preserve">Ecrire les bons noms d’images permet de plus rapidement les identifier pour nous
 et pour les robots de mieux savoir de quoi elles « parlent » et de pouvoir s’appuyer
-Dessus en cas de requetes d’images. Sans espaces, sans caractères spéciaux et 
-Sans caractères accentués. Intégrer les </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réécrire tous les noms des images, et les réintégrer en écrivant le bon chemin de pages.</t>
+dessus en cas de requetes d’images. Sans espaces, sans caractères spéciaux et 
+Sans caractères accentués.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réécrire tous les noms des images, et les réintégrer en écrivant le bon chemin d’accès.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.nosyweb.fr/optimiser-mon-referencement-seo-joomla/comment-nommer-les-images-pour-un-site-internet.html</t>
@@ -265,7 +264,7 @@
   </si>
   <si>
     <t xml:space="preserve">mettre une taille de police de minimum 10px et préférer les unités comme le em ou 
-Le rem plutot que les unités fixes comme le px</t>
+Le rem plutot que les unités fixes comme le px.</t>
   </si>
   <si>
     <t xml:space="preserve">Changer tous les textes inférieur à 10px pour les intégrer à minimum 10px, et utiliser une unité comme le em ou le 
@@ -428,7 +427,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +438,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -476,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,6 +528,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -612,8 +621,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D8" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -735,7 +744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -782,7 +791,7 @@
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -855,14 +864,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" s="12" customFormat="true" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+    <row r="21" s="13" customFormat="true" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1942,7 +1951,7 @@
       <c r="D25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1962,7 +1971,7 @@
       <c r="D27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F27" s="1" t="s">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -139,10 +139,10 @@
     <t xml:space="preserve">Meta description vide</t>
   </si>
   <si>
-    <t xml:space="preserve">Savoir si on ajoute ou non une meta description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si on a une meta descritpion, l’intégrer, sinon on ne met pas de meta description du tout.</t>
+    <t xml:space="preserve">Créer une meta description.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégrer la meta description.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.alsacreations.com/article/lire/628-balises-meta.html#utilite</t>
@@ -267,14 +267,29 @@
 Le rem plutot que les unités fixes comme le px.</t>
   </si>
   <si>
-    <t xml:space="preserve">Changer tous les textes inférieur à 10px pour les intégrer à minimum 10px, et utiliser une unité comme le em ou le 
-Rem.</t>
+    <t xml:space="preserve">Changer tous les textes inférieur à 10px pour les intégrer à minimum 10px, et utiliser une unité relative comme le em ou le Rem.</t>
   </si>
   <si>
     <t xml:space="preserve">http://all-for-design.com/web-design/lisibilite-des-sites-web-font-size-100-16px/</t>
   </si>
   <si>
     <t xml:space="preserve">Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de dossier ni fichier Sass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de dossier ni fichier scss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’utilisation de fichiers scss permet de compiler les fichiers css reliés aux pages. 
+Cela améliore la vitesse de chargement des pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer des fichiers scss dans un dossier scss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ipssidm.com/raisons-dabandonner-css-classique-sass/</t>
   </si>
   <si>
     <t xml:space="preserve">Fichier CSS « rangé » au mauvais endroit</t>
@@ -293,22 +308,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ornitorinc.com/blog/referencement/10-bonnes-pratiques-referencement-seo/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de dossier ni fichier Sass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de dossier ni fichier scss.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’utilisation de fichiers scss permet de compiler les fichiers css reliés aux pages. 
-Cela améliore la vitesse de chargement des pages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer des fichiers scss dans un dossier scss.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ipssidm.com/raisons-dabandonner-css-classique-sass/</t>
   </si>
   <si>
     <t xml:space="preserve">Javascript inutile</t>
@@ -427,7 +426,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,12 +437,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,7 +523,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,7 +629,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.61"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,13 +667,13 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -700,11 +693,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -724,7 +717,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -744,7 +738,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -764,7 +759,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
@@ -784,7 +780,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
@@ -804,7 +801,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -824,7 +822,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -844,7 +843,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -864,7 +864,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" s="13" customFormat="true" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="13" customFormat="true" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
         <v>13</v>
       </c>
@@ -884,7 +885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -1910,7 +1911,7 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="74" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -1938,7 +1939,7 @@
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1958,11 +1959,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1971,18 +1980,19 @@
       <c r="D27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1991,14 +2001,15 @@
       <c r="D29" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="14" t="s">
         <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -2018,7 +2029,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -2038,10 +2050,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -355,6 +355,24 @@
   <si>
     <t xml:space="preserve">Paramétrer le cache navigateur : paramétrer les en-tetes HTTP suivant la technologie utilisée chez 
 Votre hébergeur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauvais contraste de couleur des textes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certains textes ont un mauvais ratio de contraste avec leur background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier le ratio de contraste des couleurs des textes avec leur background avec
+https://contrast-ratio.com/ et changer les couleurs si le ratio est mauvais ou
+ trop moyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifier le ratio de contraste des couleurs avec https://contrast-ratio.com/, et changer les couleurs
+Si le ratio est trop mauvais ou trop moyen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.yoma-web.com/conseils-referencement/webdesign/accessibilite-couleur-contraste</t>
   </si>
 </sst>
 </file>
@@ -474,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,10 +539,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -614,8 +628,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -788,7 +802,7 @@
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -865,14 +879,14 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="13" customFormat="true" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+    <row r="21" s="12" customFormat="true" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1952,7 +1966,7 @@
       <c r="D25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1971,7 +1985,7 @@
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1992,7 +2006,7 @@
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2001,7 +2015,7 @@
       <c r="D29" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2076,8 +2090,25 @@
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="5"/>
+    <row r="37" customFormat="false" ht="43.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E38" s="5"/>
@@ -3055,6 +3086,9 @@
     <hyperlink ref="F25" r:id="rId5" display="http://all-for-design.com/web-design/lisibilite-des-sites-web-font-size-100-16px/"/>
     <hyperlink ref="F31" r:id="rId6" display="https://blog.yabawt.com/technologie-developpement/seo-technique-pourquoi-penser-referencement-des-le-developpement-de-votre-site-web/https://blog.yabawt.com/technologie-developpement/seo-technique-pourquoi-penser-referencement-des-le-developpement-de-votre-site-web/"/>
     <hyperlink ref="F33" r:id="rId7" display="https://www.3octets.fr/actualites/developpement/optimiser-taille-poids-images-seo-lexperience-utilisateur/"/>
+    <hyperlink ref="D37" r:id="rId8" display="https://contrast-ratio.com/"/>
+    <hyperlink ref="E37" r:id="rId9" display="https://contrast-ratio.com/"/>
+    <hyperlink ref="F37" r:id="rId10" display="https://www.yoma-web.com/conseils-referencement/webdesign/accessibilite-couleur-contraste"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
